--- a/assets/TEMPLETE.xlsx
+++ b/assets/TEMPLETE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://binusianorg-my.sharepoint.com/personal/fisra_keliwawa001_binus_ac_id/Documents/Documents/web programming/streamlit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://binusianorg-my.sharepoint.com/personal/fisra_keliwawa001_binus_ac_id/Documents/Documents/web programming/streamlit/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ED93B9F-2A8B-4AC4-9CDB-6CB311C076F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{1ED93B9F-2A8B-4AC4-9CDB-6CB311C076F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01D11F7B-27BD-4690-82DE-8146CE3AAB5C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BEFFA55B-5208-4469-A8D4-E65115A15DC7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="23">
   <si>
     <t>Nama Tim</t>
   </si>
@@ -95,19 +95,7 @@
     </r>
   </si>
   <si>
-    <t>TEAM</t>
-  </si>
-  <si>
-    <t>GAMES</t>
-  </si>
-  <si>
-    <t>WINS</t>
-  </si>
-  <si>
     <t>WINRATE</t>
-  </si>
-  <si>
-    <t>POINTS</t>
   </si>
   <si>
     <t>CP</t>
@@ -120,6 +108,12 @@
   </si>
   <si>
     <t>PERFORMA</t>
+  </si>
+  <si>
+    <t>Jumlah Kemenangan</t>
+  </si>
+  <si>
+    <t>Raihan Poin</t>
   </si>
 </sst>
 </file>
@@ -205,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -250,34 +244,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -289,11 +296,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -348,22 +407,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -466,15 +509,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7D9E5C9A-F25F-49D4-AA5C-7416AC1AE15C}" name="Table5" displayName="Table5" ref="D72:J93" totalsRowShown="0">
   <autoFilter ref="D72:J93" xr:uid="{7D9E5C9A-F25F-49D4-AA5C-7416AC1AE15C}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E74DC765-5350-4726-9D42-DD30C314F09E}" name="TEAM" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{ED9F4986-B71D-4D75-BF70-8FA5E4EAC6EA}" name="GAMES" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{C8608AD8-FA72-4B4E-9441-840E0E480DFE}" name="WINS" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{1F802D94-5C08-4F7B-9ED2-FC5F6F605D65}" name="WINRATE" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{59EB1158-496B-4B7E-A703-AFCB08885F9D}" name="POINTS" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{67AFBC1C-E31E-4553-9CBC-A3FBF9F29DC4}" name="CP" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{E74DC765-5350-4726-9D42-DD30C314F09E}" name="Nama Tim" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{ED9F4986-B71D-4D75-BF70-8FA5E4EAC6EA}" name="Jumlah Main" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{C8608AD8-FA72-4B4E-9441-840E0E480DFE}" name="Jumlah Kemenangan" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{1F802D94-5C08-4F7B-9ED2-FC5F6F605D65}" name="WINRATE" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{59EB1158-496B-4B7E-A703-AFCB08885F9D}" name="Raihan Poin" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{67AFBC1C-E31E-4553-9CBC-A3FBF9F29DC4}" name="CP" dataDxfId="3">
       <calculatedColumnFormula>(H73/(E73*3))*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A10F5466-8501-4B76-BBA3-7EE91250A2CA}" name="CP FIX" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{A10F5466-8501-4B76-BBA3-7EE91250A2CA}" name="CP FIX" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -779,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B463E9-9964-495A-8236-112614876012}">
   <dimension ref="D1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N76" sqref="N76"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,7 +831,7 @@
     <col min="3" max="3" width="10.44140625" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
     <col min="5" max="5" width="14.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" customWidth="1"/>
     <col min="7" max="7" width="19.5546875" customWidth="1"/>
     <col min="8" max="8" width="15.44140625" customWidth="1"/>
     <col min="9" max="9" width="21.33203125" customWidth="1"/>
@@ -796,47 +839,47 @@
   <sheetData>
     <row r="1" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="6" spans="4:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="8" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -853,19 +896,19 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="5">
         <f>Table1[[#This Row],[Jumlah Gol]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="5">
         <f>Table1[[#This Row],[Jumlah Kebobolan]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="5">
         <f>Table1[[#This Row],[Rata-Rata Gol]]/H31</f>
         <v>1</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="5">
         <f>Table1[[#This Row],[Rata Rata Kebobolan]]/I31</f>
         <v>1</v>
       </c>
@@ -883,19 +926,19 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="5">
         <f>Table1[[#This Row],[Jumlah Gol]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="5">
         <f>Table1[[#This Row],[Jumlah Kebobolan]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="5">
         <f>Table1[[#This Row],[Rata-Rata Gol]]/H31</f>
         <v>1</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="5">
         <f>Table1[[#This Row],[Rata Rata Kebobolan]]/I31</f>
         <v>1</v>
       </c>
@@ -913,19 +956,19 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="5">
         <f>Table1[[#This Row],[Jumlah Gol]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="5">
         <f>Table1[[#This Row],[Jumlah Kebobolan]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="5">
         <f>Table1[[#This Row],[Rata-Rata Gol]]/H31</f>
         <v>1</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="5">
         <f>Table1[[#This Row],[Rata Rata Kebobolan]]/I31</f>
         <v>1</v>
       </c>
@@ -943,19 +986,19 @@
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="5">
         <f>Table1[[#This Row],[Jumlah Gol]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="5">
         <f>Table1[[#This Row],[Jumlah Kebobolan]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="5">
         <f>Table1[[#This Row],[Rata-Rata Gol]]/H31</f>
         <v>1</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="5">
         <f>Table1[[#This Row],[Rata Rata Kebobolan]]/I31</f>
         <v>1</v>
       </c>
@@ -973,19 +1016,19 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="5">
         <f>Table1[[#This Row],[Jumlah Gol]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="5">
         <f>Table1[[#This Row],[Jumlah Kebobolan]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="5">
         <f>Table1[[#This Row],[Rata-Rata Gol]]/H31</f>
         <v>1</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="5">
         <f>Table1[[#This Row],[Rata Rata Kebobolan]]/I31</f>
         <v>1</v>
       </c>
@@ -1003,19 +1046,19 @@
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="5">
         <f>Table1[[#This Row],[Jumlah Gol]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="5">
         <f>Table1[[#This Row],[Jumlah Kebobolan]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="5">
         <f>Table1[[#This Row],[Rata-Rata Gol]]/H31</f>
         <v>1</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="5">
         <f>Table1[[#This Row],[Rata Rata Kebobolan]]/I31</f>
         <v>1</v>
       </c>
@@ -1033,19 +1076,19 @@
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="5">
         <f>Table1[[#This Row],[Jumlah Gol]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="5">
         <f>Table1[[#This Row],[Jumlah Kebobolan]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="5">
         <f>Table1[[#This Row],[Rata-Rata Gol]]/H31</f>
         <v>1</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="5">
         <f>Table1[[#This Row],[Rata Rata Kebobolan]]/I31</f>
         <v>1</v>
       </c>
@@ -1063,19 +1106,19 @@
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="5">
         <f>Table1[[#This Row],[Jumlah Gol]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="5">
         <f>Table1[[#This Row],[Jumlah Kebobolan]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="5">
         <f>Table1[[#This Row],[Rata-Rata Gol]]/H31</f>
         <v>1</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="5">
         <f>Table1[[#This Row],[Rata Rata Kebobolan]]/I31</f>
         <v>1</v>
       </c>
@@ -1093,19 +1136,19 @@
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="5">
         <f>Table1[[#This Row],[Jumlah Gol]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="5">
         <f>Table1[[#This Row],[Jumlah Kebobolan]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="5">
         <f>Table1[[#This Row],[Rata-Rata Gol]]/H31</f>
         <v>1</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="5">
         <f>Table1[[#This Row],[Rata Rata Kebobolan]]/I31</f>
         <v>1</v>
       </c>
@@ -1123,19 +1166,19 @@
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="5">
         <f>Table1[[#This Row],[Jumlah Gol]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="5">
         <f>Table1[[#This Row],[Jumlah Kebobolan]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="5">
         <f>Table1[[#This Row],[Rata-Rata Gol]]/H31</f>
         <v>1</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="5">
         <f>Table1[[#This Row],[Rata Rata Kebobolan]]/I31</f>
         <v>1</v>
       </c>
@@ -1153,19 +1196,19 @@
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="5">
         <f>Table1[[#This Row],[Jumlah Gol]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="5">
         <f>Table1[[#This Row],[Jumlah Kebobolan]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="5">
         <f>Table1[[#This Row],[Rata-Rata Gol]]/H31</f>
         <v>1</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="5">
         <f>Table1[[#This Row],[Rata Rata Kebobolan]]/I31</f>
         <v>1</v>
       </c>
@@ -1183,19 +1226,19 @@
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="5">
         <f>Table1[[#This Row],[Jumlah Gol]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="5">
         <f>Table1[[#This Row],[Jumlah Kebobolan]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="5">
         <f>Table1[[#This Row],[Rata-Rata Gol]]/H31</f>
         <v>1</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="5">
         <f>Table1[[#This Row],[Rata Rata Kebobolan]]/I31</f>
         <v>1</v>
       </c>
@@ -1213,19 +1256,19 @@
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="5">
         <f>Table1[[#This Row],[Jumlah Gol]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="5">
         <f>Table1[[#This Row],[Jumlah Kebobolan]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="5">
         <f>Table1[[#This Row],[Rata-Rata Gol]]/H31</f>
         <v>1</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="5">
         <f>Table1[[#This Row],[Rata Rata Kebobolan]]/I31</f>
         <v>1</v>
       </c>
@@ -1243,19 +1286,19 @@
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="5">
         <f>Table1[[#This Row],[Jumlah Gol]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="5">
         <f>Table1[[#This Row],[Jumlah Kebobolan]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="5">
         <f>Table1[[#This Row],[Rata-Rata Gol]]/H31</f>
         <v>1</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="5">
         <f>Table1[[#This Row],[Rata Rata Kebobolan]]/I31</f>
         <v>1</v>
       </c>
@@ -1273,19 +1316,19 @@
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="5">
         <f>Table1[[#This Row],[Jumlah Gol]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="5">
         <f>Table1[[#This Row],[Jumlah Kebobolan]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="5">
         <f>Table1[[#This Row],[Rata-Rata Gol]]/H31</f>
         <v>1</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="5">
         <f>Table1[[#This Row],[Rata Rata Kebobolan]]/I31</f>
         <v>1</v>
       </c>
@@ -1303,19 +1346,19 @@
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="5">
         <f>Table1[[#This Row],[Jumlah Gol]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="5">
         <f>Table1[[#This Row],[Jumlah Kebobolan]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="5">
         <f>Table1[[#This Row],[Rata-Rata Gol]]/H31</f>
         <v>1</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="5">
         <f>Table1[[#This Row],[Rata Rata Kebobolan]]/I31</f>
         <v>1</v>
       </c>
@@ -1333,19 +1376,19 @@
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="5">
         <f>Table1[[#This Row],[Jumlah Gol]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="5">
         <f>Table1[[#This Row],[Jumlah Kebobolan]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="5">
         <f>Table1[[#This Row],[Rata-Rata Gol]]/H31</f>
         <v>1</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="5">
         <f>Table1[[#This Row],[Rata Rata Kebobolan]]/I31</f>
         <v>1</v>
       </c>
@@ -1363,19 +1406,19 @@
       <c r="G26">
         <v>1</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="5">
         <f>Table1[[#This Row],[Jumlah Gol]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="5">
         <f>Table1[[#This Row],[Jumlah Kebobolan]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="5">
         <f>Table1[[#This Row],[Rata-Rata Gol]]/H31</f>
         <v>1</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="5">
         <f>Table1[[#This Row],[Rata Rata Kebobolan]]/I31</f>
         <v>1</v>
       </c>
@@ -1393,19 +1436,19 @@
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="5">
         <f>Table1[[#This Row],[Jumlah Gol]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="5">
         <f>Table1[[#This Row],[Jumlah Kebobolan]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="5">
         <f>Table1[[#This Row],[Rata-Rata Gol]]/H31</f>
         <v>1</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="5">
         <f>Table1[[#This Row],[Rata Rata Kebobolan]]/I31</f>
         <v>1</v>
       </c>
@@ -1423,131 +1466,131 @@
       <c r="G28">
         <v>1</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="5">
         <f>Table1[[#This Row],[Jumlah Gol]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="5">
         <f>Table1[[#This Row],[Jumlah Kebobolan]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="5">
         <f>Table1[[#This Row],[Rata-Rata Gol]]/H31</f>
         <v>1</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="5">
         <f>Table1[[#This Row],[Rata Rata Kebobolan]]/I31</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4" t="e">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2" t="e">
         <f>Table1[[#This Row],[Jumlah Gol]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="4" t="e">
+      <c r="I29" s="2" t="e">
         <f>Table1[[#This Row],[Jumlah Kebobolan]]/Table1[[#This Row],[Jumlah Main]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J29" s="4" t="e">
+      <c r="J29" s="2" t="e">
         <f>Table1[[#This Row],[Rata-Rata Gol]]/H50</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="4"/>
+      <c r="K29" s="2"/>
     </row>
     <row r="30" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="4">
         <f>SUM(E9:E28)</f>
         <v>20</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="4">
         <f>SUM(F9:F28)</f>
         <v>20</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="4">
         <f>SUM(G9:G28)</f>
         <v>20</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="4">
         <f>SUM(H9:H28)</f>
         <v>20</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="4">
         <f>SUM(I9:I28)</f>
         <v>20</v>
       </c>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
     </row>
     <row r="31" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="4">
         <f>AVERAGE(E9:E28)</f>
         <v>1</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="4">
         <f>AVERAGE(F9:F28)</f>
         <v>1</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="4">
         <f>AVERAGE(G9:G28)</f>
         <v>1</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="4">
         <f>AVERAGE(H9:H28)</f>
         <v>1</v>
       </c>
-      <c r="I31" s="7">
-        <f t="shared" ref="F31:I31" si="0">AVERAGE(I9:I28)</f>
-        <v>1</v>
-      </c>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="I31" s="4">
+        <f t="shared" ref="I31" si="0">AVERAGE(I9:I28)</f>
+        <v>1</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
     </row>
     <row r="38" spans="4:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
     </row>
     <row r="40" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>0</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H40" s="3" t="s">
+      <c r="G40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="K40" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1564,19 +1607,19 @@
       <c r="G41">
         <v>1</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="4">
         <f>Table15[[#This Row],[Jumlah Gol]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="4">
         <f>Table15[[#This Row],[Jumlah Kebobolan]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="4">
         <f>Table15[[#This Row],[Rata-Rata Gol]]/H63</f>
         <v>1</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K41" s="4">
         <f>Table15[[#This Row],[Rata Rata Kebobolan]]/I63</f>
         <v>1</v>
       </c>
@@ -1594,19 +1637,19 @@
       <c r="G42">
         <v>1</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="4">
         <f>Table15[[#This Row],[Jumlah Gol]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="4">
         <f>Table15[[#This Row],[Jumlah Kebobolan]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="4">
         <f>Table15[[#This Row],[Rata-Rata Gol]]/H63</f>
         <v>1</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K42" s="4">
         <f>Table15[[#This Row],[Rata Rata Kebobolan]]/I63</f>
         <v>1</v>
       </c>
@@ -1624,19 +1667,19 @@
       <c r="G43">
         <v>1</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="4">
         <f>Table15[[#This Row],[Jumlah Gol]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="4">
         <f>Table15[[#This Row],[Jumlah Kebobolan]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="4">
         <f>Table15[[#This Row],[Rata-Rata Gol]]/H63</f>
         <v>1</v>
       </c>
-      <c r="K43" s="7">
+      <c r="K43" s="4">
         <f>Table15[[#This Row],[Rata Rata Kebobolan]]/I63</f>
         <v>1</v>
       </c>
@@ -1654,19 +1697,19 @@
       <c r="G44">
         <v>1</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="4">
         <f>Table15[[#This Row],[Jumlah Gol]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="4">
         <f>Table15[[#This Row],[Jumlah Kebobolan]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="4">
         <f>Table15[[#This Row],[Rata-Rata Gol]]/H63</f>
         <v>1</v>
       </c>
-      <c r="K44" s="7">
+      <c r="K44" s="4">
         <f>Table15[[#This Row],[Rata Rata Kebobolan]]/I63</f>
         <v>1</v>
       </c>
@@ -1684,19 +1727,19 @@
       <c r="G45">
         <v>1</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="4">
         <f>Table15[[#This Row],[Jumlah Gol]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="4">
         <f>Table15[[#This Row],[Jumlah Kebobolan]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="4">
         <f>Table15[[#This Row],[Rata-Rata Gol]]/H63</f>
         <v>1</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K45" s="4">
         <f>Table15[[#This Row],[Rata Rata Kebobolan]]/I63</f>
         <v>1</v>
       </c>
@@ -1714,19 +1757,19 @@
       <c r="G46">
         <v>1</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="4">
         <f>Table15[[#This Row],[Jumlah Gol]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="4">
         <f>Table15[[#This Row],[Jumlah Kebobolan]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="4">
         <f>Table15[[#This Row],[Rata-Rata Gol]]/H63</f>
         <v>1</v>
       </c>
-      <c r="K46" s="7">
+      <c r="K46" s="4">
         <f>Table15[[#This Row],[Rata Rata Kebobolan]]/I63</f>
         <v>1</v>
       </c>
@@ -1744,19 +1787,19 @@
       <c r="G47">
         <v>1</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="4">
         <f>Table15[[#This Row],[Jumlah Gol]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="4">
         <f>Table15[[#This Row],[Jumlah Kebobolan]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="4">
         <f>Table15[[#This Row],[Rata-Rata Gol]]/H63</f>
         <v>1</v>
       </c>
-      <c r="K47" s="7">
+      <c r="K47" s="4">
         <f>Table15[[#This Row],[Rata Rata Kebobolan]]/I63</f>
         <v>1</v>
       </c>
@@ -1774,19 +1817,19 @@
       <c r="G48">
         <v>1</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="4">
         <f>Table15[[#This Row],[Jumlah Gol]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="4">
         <f>Table15[[#This Row],[Jumlah Kebobolan]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J48" s="4">
         <f>Table15[[#This Row],[Rata-Rata Gol]]/H63</f>
         <v>1</v>
       </c>
-      <c r="K48" s="7">
+      <c r="K48" s="4">
         <f>Table15[[#This Row],[Rata Rata Kebobolan]]/I63</f>
         <v>1</v>
       </c>
@@ -1804,19 +1847,19 @@
       <c r="G49">
         <v>1</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="4">
         <f>Table15[[#This Row],[Jumlah Gol]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="4">
         <f>Table15[[#This Row],[Jumlah Kebobolan]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="4">
         <f>Table15[[#This Row],[Rata-Rata Gol]]/H63</f>
         <v>1</v>
       </c>
-      <c r="K49" s="7">
+      <c r="K49" s="4">
         <f>Table15[[#This Row],[Rata Rata Kebobolan]]/I63</f>
         <v>1</v>
       </c>
@@ -1834,19 +1877,19 @@
       <c r="G50">
         <v>1</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="4">
         <f>Table15[[#This Row],[Jumlah Gol]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="4">
         <f>Table15[[#This Row],[Jumlah Kebobolan]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="4">
         <f>Table15[[#This Row],[Rata-Rata Gol]]/H63</f>
         <v>1</v>
       </c>
-      <c r="K50" s="7">
+      <c r="K50" s="4">
         <f>Table15[[#This Row],[Rata Rata Kebobolan]]/I63</f>
         <v>1</v>
       </c>
@@ -1864,19 +1907,19 @@
       <c r="G51">
         <v>1</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="4">
         <f>Table15[[#This Row],[Jumlah Gol]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="4">
         <f>Table15[[#This Row],[Jumlah Kebobolan]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="4">
         <f>Table15[[#This Row],[Rata-Rata Gol]]/H63</f>
         <v>1</v>
       </c>
-      <c r="K51" s="7">
+      <c r="K51" s="4">
         <f>Table15[[#This Row],[Rata Rata Kebobolan]]/I63</f>
         <v>1</v>
       </c>
@@ -1894,19 +1937,19 @@
       <c r="G52">
         <v>1</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="4">
         <f>Table15[[#This Row],[Jumlah Gol]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="4">
         <f>Table15[[#This Row],[Jumlah Kebobolan]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J52" s="7">
+      <c r="J52" s="4">
         <f>Table15[[#This Row],[Rata-Rata Gol]]/H63</f>
         <v>1</v>
       </c>
-      <c r="K52" s="7">
+      <c r="K52" s="4">
         <f>Table15[[#This Row],[Rata Rata Kebobolan]]/I63</f>
         <v>1</v>
       </c>
@@ -1924,19 +1967,19 @@
       <c r="G53">
         <v>1</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="4">
         <f>Table15[[#This Row],[Jumlah Gol]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I53" s="4">
         <f>Table15[[#This Row],[Jumlah Kebobolan]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J53" s="4">
         <f>Table15[[#This Row],[Rata-Rata Gol]]/H63</f>
         <v>1</v>
       </c>
-      <c r="K53" s="7">
+      <c r="K53" s="4">
         <f>Table15[[#This Row],[Rata Rata Kebobolan]]/I63</f>
         <v>1</v>
       </c>
@@ -1954,19 +1997,19 @@
       <c r="G54">
         <v>1</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="4">
         <f>Table15[[#This Row],[Jumlah Gol]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="4">
         <f>Table15[[#This Row],[Jumlah Kebobolan]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J54" s="4">
         <f>Table15[[#This Row],[Rata-Rata Gol]]/H63</f>
         <v>1</v>
       </c>
-      <c r="K54" s="7">
+      <c r="K54" s="4">
         <f>Table15[[#This Row],[Rata Rata Kebobolan]]/I63</f>
         <v>1</v>
       </c>
@@ -1984,19 +2027,19 @@
       <c r="G55">
         <v>1</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55" s="4">
         <f>Table15[[#This Row],[Jumlah Gol]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="4">
         <f>Table15[[#This Row],[Jumlah Kebobolan]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J55" s="7">
+      <c r="J55" s="4">
         <f>Table15[[#This Row],[Rata-Rata Gol]]/H63</f>
         <v>1</v>
       </c>
-      <c r="K55" s="7">
+      <c r="K55" s="4">
         <f>Table15[[#This Row],[Rata Rata Kebobolan]]/I63</f>
         <v>1</v>
       </c>
@@ -2014,19 +2057,19 @@
       <c r="G56">
         <v>1</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="4">
         <f>Table15[[#This Row],[Jumlah Gol]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="4">
         <f>Table15[[#This Row],[Jumlah Kebobolan]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56" s="4">
         <f>Table15[[#This Row],[Rata-Rata Gol]]/H63</f>
         <v>1</v>
       </c>
-      <c r="K56" s="7">
+      <c r="K56" s="4">
         <f>Table15[[#This Row],[Rata Rata Kebobolan]]/I63</f>
         <v>1</v>
       </c>
@@ -2044,19 +2087,19 @@
       <c r="G57">
         <v>1</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="4">
         <f>Table15[[#This Row],[Jumlah Gol]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I57" s="4">
         <f>Table15[[#This Row],[Jumlah Kebobolan]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J57" s="4">
         <f>Table15[[#This Row],[Rata-Rata Gol]]/H63</f>
         <v>1</v>
       </c>
-      <c r="K57" s="7">
+      <c r="K57" s="4">
         <f>Table15[[#This Row],[Rata Rata Kebobolan]]/I63</f>
         <v>1</v>
       </c>
@@ -2074,19 +2117,19 @@
       <c r="G58">
         <v>1</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H58" s="4">
         <f>Table15[[#This Row],[Jumlah Gol]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I58" s="4">
         <f>Table15[[#This Row],[Jumlah Kebobolan]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J58" s="4">
         <f>Table15[[#This Row],[Rata-Rata Gol]]/H63</f>
         <v>1</v>
       </c>
-      <c r="K58" s="7">
+      <c r="K58" s="4">
         <f>Table15[[#This Row],[Rata Rata Kebobolan]]/I63</f>
         <v>1</v>
       </c>
@@ -2104,19 +2147,19 @@
       <c r="G59">
         <v>1</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59" s="4">
         <f>Table15[[#This Row],[Jumlah Gol]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="4">
         <f>Table15[[#This Row],[Jumlah Kebobolan]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="4">
         <f>Table15[[#This Row],[Rata-Rata Gol]]/H63</f>
         <v>1</v>
       </c>
-      <c r="K59" s="7">
+      <c r="K59" s="4">
         <f>Table15[[#This Row],[Rata Rata Kebobolan]]/I63</f>
         <v>1</v>
       </c>
@@ -2134,663 +2177,663 @@
       <c r="G60">
         <v>1</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60" s="4">
         <f>Table15[[#This Row],[Jumlah Gol]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="4">
         <f>Table15[[#This Row],[Jumlah Kebobolan]]/Table15[[#This Row],[Jumlah Main]]</f>
         <v>1</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J60" s="4">
         <f>Table15[[#This Row],[Rata-Rata Gol]]/H63</f>
         <v>1</v>
       </c>
-      <c r="K60" s="7">
+      <c r="K60" s="4">
         <f>Table15[[#This Row],[Rata Rata Kebobolan]]/I63</f>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
     </row>
     <row r="62" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>9</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="4">
         <f>SUM(E41:E60)</f>
         <v>20</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="4">
         <f>SUM(F41:F60)</f>
         <v>20</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G62" s="4">
         <f>SUM(G41:G60)</f>
         <v>20</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H62" s="4">
         <f>SUM(H41:H60)</f>
         <v>20</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I62" s="4">
         <f>SUM(I41:I60)</f>
         <v>20</v>
       </c>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
     </row>
     <row r="63" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="4">
         <f>AVERAGE(E41:E60)</f>
         <v>1</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="4">
         <f>AVERAGE(F41:F60)</f>
         <v>1</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G63" s="4">
         <f>AVERAGE(G41:G60)</f>
         <v>1</v>
       </c>
-      <c r="H63" s="7">
+      <c r="H63" s="4">
         <f>AVERAGE(H41:H60)</f>
         <v>1</v>
       </c>
-      <c r="I63" s="7">
-        <f t="shared" ref="I63:K63" si="1">AVERAGE(I41:I60)</f>
-        <v>1</v>
-      </c>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
+      <c r="I63" s="4">
+        <f t="shared" ref="I63" si="1">AVERAGE(I41:I60)</f>
+        <v>1</v>
+      </c>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
     </row>
     <row r="70" spans="4:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="D70" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
+      <c r="D70" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
     </row>
     <row r="72" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
         <v>16</v>
       </c>
-      <c r="E72" t="s">
+      <c r="H72" t="s">
+        <v>22</v>
+      </c>
+      <c r="I72" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F72" t="s">
+      <c r="J72" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G72" t="s">
-        <v>19</v>
-      </c>
-      <c r="H72" t="s">
-        <v>20</v>
-      </c>
-      <c r="I72" s="9" t="s">
+    </row>
+    <row r="73" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D73" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="21">
         <v>21</v>
       </c>
-      <c r="J72" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D73" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E73" s="11">
-        <v>21</v>
-      </c>
-      <c r="F73" s="11">
+      <c r="F73" s="16">
         <v>16</v>
       </c>
-      <c r="G73" s="13">
+      <c r="G73" s="17">
         <f>(F73/E73)*100</f>
         <v>76.19047619047619</v>
       </c>
-      <c r="H73" s="11">
+      <c r="H73" s="14">
         <v>50</v>
       </c>
-      <c r="I73" s="13">
+      <c r="I73" s="7">
         <f>(H73/(E73*3))*100</f>
         <v>79.365079365079367</v>
       </c>
-      <c r="J73" s="13">
+      <c r="J73" s="7">
         <f>I73/I93</f>
         <v>1.7271157167530227</v>
       </c>
     </row>
     <row r="74" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D74" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E74" s="10">
+      <c r="D74" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="22">
         <v>21</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F74" s="18">
         <v>14</v>
       </c>
-      <c r="G74" s="13">
+      <c r="G74" s="17">
         <f t="shared" ref="G74:G92" si="2">(F74/E74)*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="H74" s="10">
+      <c r="H74" s="19">
         <v>45</v>
       </c>
-      <c r="I74" s="13">
+      <c r="I74" s="7">
         <f t="shared" ref="I74:I76" si="3">(H74/(E74*3))*100</f>
         <v>71.428571428571431</v>
       </c>
-      <c r="J74" s="13">
+      <c r="J74" s="7">
         <f>I74/I93</f>
         <v>1.5544041450777204</v>
       </c>
     </row>
     <row r="75" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D75" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E75" s="11">
+      <c r="D75" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="21">
         <v>21</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F75" s="16">
         <v>13</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G75" s="17">
         <f t="shared" si="2"/>
         <v>61.904761904761905</v>
       </c>
-      <c r="H75" s="11">
+      <c r="H75" s="14">
         <v>42</v>
       </c>
-      <c r="I75" s="13">
+      <c r="I75" s="7">
         <f t="shared" si="3"/>
         <v>66.666666666666657</v>
       </c>
-      <c r="J75" s="13">
+      <c r="J75" s="7">
         <f>I75/I93</f>
         <v>1.4507772020725387</v>
       </c>
     </row>
     <row r="76" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D76" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="12">
+      <c r="D76" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="23">
         <v>21</v>
       </c>
-      <c r="F76" s="12">
+      <c r="F76" s="20">
         <v>10</v>
       </c>
-      <c r="G76" s="13">
+      <c r="G76" s="17">
         <f t="shared" si="2"/>
         <v>47.619047619047613</v>
       </c>
-      <c r="H76" s="12">
+      <c r="H76" s="15">
         <v>40</v>
       </c>
-      <c r="I76" s="13">
+      <c r="I76" s="7">
         <f t="shared" si="3"/>
         <v>63.492063492063487</v>
       </c>
-      <c r="J76" s="13">
+      <c r="J76" s="7">
         <f>I76/I93</f>
         <v>1.3816925734024179</v>
       </c>
     </row>
     <row r="77" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D77" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E77" s="11">
+      <c r="D77" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="21">
         <v>21</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F77" s="16">
         <v>11</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G77" s="17">
         <f>(F77/E77)*100</f>
         <v>52.380952380952387</v>
       </c>
-      <c r="H77" s="11">
+      <c r="H77" s="14">
         <v>36</v>
       </c>
-      <c r="I77" s="13">
+      <c r="I77" s="7">
         <f>(H77/(E77*3))*100</f>
         <v>57.142857142857139</v>
       </c>
-      <c r="J77" s="13">
+      <c r="J77" s="7">
         <f>I77/I93</f>
         <v>1.2435233160621761</v>
       </c>
     </row>
     <row r="78" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D78" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E78" s="12">
+      <c r="D78" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="23">
         <v>21</v>
       </c>
-      <c r="F78" s="12">
+      <c r="F78" s="20">
         <v>8</v>
       </c>
-      <c r="G78" s="13">
+      <c r="G78" s="17">
         <f t="shared" si="2"/>
         <v>38.095238095238095</v>
       </c>
-      <c r="H78" s="12">
+      <c r="H78" s="15">
         <v>28</v>
       </c>
-      <c r="I78" s="13">
+      <c r="I78" s="7">
         <f t="shared" ref="I78:I79" si="4">(H78/(E78*3))*100</f>
         <v>44.444444444444443</v>
       </c>
-      <c r="J78" s="13">
+      <c r="J78" s="7">
         <f>I78/I93</f>
         <v>0.9671848013816926</v>
       </c>
     </row>
     <row r="79" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D79" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E79" s="11">
+      <c r="D79" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="21">
         <v>21</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F79" s="16">
         <v>10</v>
       </c>
-      <c r="G79" s="13">
+      <c r="G79" s="17">
         <f t="shared" si="2"/>
         <v>47.619047619047613</v>
       </c>
-      <c r="H79" s="11">
+      <c r="H79" s="14">
         <v>35</v>
       </c>
-      <c r="I79" s="13">
+      <c r="I79" s="7">
         <f t="shared" si="4"/>
         <v>55.555555555555557</v>
       </c>
-      <c r="J79" s="13">
+      <c r="J79" s="7">
         <f>I79/I93</f>
         <v>1.2089810017271159</v>
       </c>
     </row>
     <row r="80" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D80" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E80" s="12">
+      <c r="D80" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" s="23">
         <v>21</v>
       </c>
-      <c r="F80" s="12">
+      <c r="F80" s="20">
         <v>9</v>
       </c>
-      <c r="G80" s="13">
+      <c r="G80" s="17">
         <f t="shared" si="2"/>
         <v>42.857142857142854</v>
       </c>
-      <c r="H80" s="12">
+      <c r="H80" s="15">
         <v>32</v>
       </c>
-      <c r="I80" s="13">
+      <c r="I80" s="7">
         <f>(H80/(E80*3))*100</f>
         <v>50.793650793650791</v>
       </c>
-      <c r="J80" s="13">
+      <c r="J80" s="7">
         <f>I80/I93</f>
         <v>1.1053540587219344</v>
       </c>
     </row>
     <row r="81" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D81" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="11">
+      <c r="D81" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="21">
         <v>21</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F81" s="16">
         <v>8</v>
       </c>
-      <c r="G81" s="13">
+      <c r="G81" s="17">
         <f t="shared" si="2"/>
         <v>38.095238095238095</v>
       </c>
-      <c r="H81" s="11">
+      <c r="H81" s="14">
         <v>33</v>
       </c>
-      <c r="I81" s="13">
+      <c r="I81" s="7">
         <f t="shared" ref="I81:I92" si="5">(H81/(E81*3))*100</f>
         <v>52.380952380952387</v>
       </c>
-      <c r="J81" s="13">
+      <c r="J81" s="7">
         <f>I81/I93</f>
         <v>1.1398963730569951</v>
       </c>
     </row>
     <row r="82" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D82" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E82" s="12">
+      <c r="D82" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="23">
         <v>21</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F82" s="20">
         <v>9</v>
       </c>
-      <c r="G82" s="13">
+      <c r="G82" s="17">
         <f t="shared" si="2"/>
         <v>42.857142857142854</v>
       </c>
-      <c r="H82" s="12">
+      <c r="H82" s="15">
         <v>31</v>
       </c>
-      <c r="I82" s="13">
+      <c r="I82" s="7">
         <f t="shared" si="5"/>
         <v>49.206349206349202</v>
       </c>
-      <c r="J82" s="13">
+      <c r="J82" s="7">
         <f>I82/I93</f>
         <v>1.0708117443868739</v>
       </c>
     </row>
     <row r="83" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D83" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="11">
+      <c r="D83" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="21">
         <v>21</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F83" s="16">
         <v>8</v>
       </c>
-      <c r="G83" s="13">
+      <c r="G83" s="17">
         <f t="shared" si="2"/>
         <v>38.095238095238095</v>
       </c>
-      <c r="H83" s="11">
+      <c r="H83" s="14">
         <v>30</v>
       </c>
-      <c r="I83" s="13">
+      <c r="I83" s="7">
         <f t="shared" si="5"/>
         <v>47.619047619047613</v>
       </c>
-      <c r="J83" s="13">
+      <c r="J83" s="7">
         <f>I83/I93</f>
         <v>1.0362694300518134</v>
       </c>
     </row>
     <row r="84" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D84" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E84" s="12">
+      <c r="D84" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" s="23">
         <v>21</v>
       </c>
-      <c r="F84" s="12">
+      <c r="F84" s="20">
         <v>6</v>
       </c>
-      <c r="G84" s="13">
+      <c r="G84" s="17">
         <f t="shared" si="2"/>
         <v>28.571428571428569</v>
       </c>
-      <c r="H84" s="12">
+      <c r="H84" s="15">
         <v>24</v>
       </c>
-      <c r="I84" s="13">
+      <c r="I84" s="7">
         <f t="shared" si="5"/>
         <v>38.095238095238095</v>
       </c>
-      <c r="J84" s="13">
+      <c r="J84" s="7">
         <f>I84/I93</f>
         <v>0.82901554404145084</v>
       </c>
     </row>
     <row r="85" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D85" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E85" s="11">
+      <c r="D85" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" s="21">
         <v>21</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F85" s="16">
         <v>5</v>
       </c>
-      <c r="G85" s="13">
+      <c r="G85" s="17">
         <f t="shared" si="2"/>
         <v>23.809523809523807</v>
       </c>
-      <c r="H85" s="11">
+      <c r="H85" s="14">
         <v>20</v>
       </c>
-      <c r="I85" s="13">
+      <c r="I85" s="7">
         <f t="shared" si="5"/>
         <v>31.746031746031743</v>
       </c>
-      <c r="J85" s="13">
+      <c r="J85" s="7">
         <f>I85/I93</f>
         <v>0.69084628670120896</v>
       </c>
     </row>
     <row r="86" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D86" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E86" s="12">
+      <c r="D86" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" s="23">
         <v>21</v>
       </c>
-      <c r="F86" s="12">
-        <v>4</v>
-      </c>
-      <c r="G86" s="13">
+      <c r="F86" s="20">
+        <v>4</v>
+      </c>
+      <c r="G86" s="17">
         <f t="shared" si="2"/>
         <v>19.047619047619047</v>
       </c>
-      <c r="H86" s="12">
+      <c r="H86" s="15">
         <v>17</v>
       </c>
-      <c r="I86" s="13">
+      <c r="I86" s="7">
         <f t="shared" si="5"/>
         <v>26.984126984126984</v>
       </c>
-      <c r="J86" s="13">
+      <c r="J86" s="7">
         <f>I86/I93</f>
         <v>0.58721934369602768</v>
       </c>
     </row>
     <row r="87" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D87" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E87" s="11">
+      <c r="D87" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" s="21">
         <v>21</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F87" s="16">
         <v>5</v>
       </c>
-      <c r="G87" s="13">
+      <c r="G87" s="17">
         <f t="shared" si="2"/>
         <v>23.809523809523807</v>
       </c>
-      <c r="H87" s="11">
+      <c r="H87" s="14">
         <v>19</v>
       </c>
-      <c r="I87" s="13">
+      <c r="I87" s="7">
         <f t="shared" si="5"/>
         <v>30.158730158730158</v>
       </c>
-      <c r="J87" s="13">
+      <c r="J87" s="7">
         <f>I87/I93</f>
         <v>0.65630397236614857</v>
       </c>
     </row>
     <row r="88" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D88" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E88" s="12">
+      <c r="D88" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E88" s="23">
         <v>21</v>
       </c>
-      <c r="F88" s="12">
-        <v>4</v>
-      </c>
-      <c r="G88" s="13">
+      <c r="F88" s="20">
+        <v>4</v>
+      </c>
+      <c r="G88" s="17">
         <f t="shared" si="2"/>
         <v>19.047619047619047</v>
       </c>
-      <c r="H88" s="12">
+      <c r="H88" s="15">
         <v>19</v>
       </c>
-      <c r="I88" s="13">
+      <c r="I88" s="7">
         <f t="shared" si="5"/>
         <v>30.158730158730158</v>
       </c>
-      <c r="J88" s="13">
+      <c r="J88" s="7">
         <f>I88/I93</f>
         <v>0.65630397236614857</v>
       </c>
     </row>
     <row r="89" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D89" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="11">
+      <c r="D89" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="21">
         <v>21</v>
       </c>
-      <c r="F89" s="11">
-        <v>4</v>
-      </c>
-      <c r="G89" s="13">
+      <c r="F89" s="16">
+        <v>4</v>
+      </c>
+      <c r="G89" s="17">
         <f t="shared" si="2"/>
         <v>19.047619047619047</v>
       </c>
-      <c r="H89" s="11">
+      <c r="H89" s="14">
         <v>18</v>
       </c>
-      <c r="I89" s="13">
+      <c r="I89" s="7">
         <f t="shared" si="5"/>
         <v>28.571428571428569</v>
       </c>
-      <c r="J89" s="13">
+      <c r="J89" s="7">
         <f>I89/I93</f>
         <v>0.62176165803108807</v>
       </c>
     </row>
     <row r="90" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D90" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E90" s="12">
+      <c r="D90" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" s="23">
         <v>21</v>
       </c>
-      <c r="F90" s="12">
+      <c r="F90" s="20">
         <v>6</v>
       </c>
-      <c r="G90" s="13">
+      <c r="G90" s="17">
         <f t="shared" si="2"/>
         <v>28.571428571428569</v>
       </c>
-      <c r="H90" s="12">
+      <c r="H90" s="15">
         <v>24</v>
       </c>
-      <c r="I90" s="13">
+      <c r="I90" s="7">
         <f t="shared" si="5"/>
         <v>38.095238095238095</v>
       </c>
-      <c r="J90" s="13">
+      <c r="J90" s="7">
         <f>I90/I93</f>
         <v>0.82901554404145084</v>
       </c>
     </row>
     <row r="91" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D91" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="11">
+      <c r="D91" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="21">
         <v>21</v>
       </c>
-      <c r="F91" s="11">
+      <c r="F91" s="16">
         <v>6</v>
       </c>
-      <c r="G91" s="13">
+      <c r="G91" s="17">
         <f t="shared" si="2"/>
         <v>28.571428571428569</v>
       </c>
-      <c r="H91" s="11">
+      <c r="H91" s="14">
         <v>21</v>
       </c>
-      <c r="I91" s="13">
+      <c r="I91" s="7">
         <f t="shared" si="5"/>
         <v>33.333333333333329</v>
       </c>
-      <c r="J91" s="13">
+      <c r="J91" s="7">
         <f>I91/I93</f>
         <v>0.72538860103626934</v>
       </c>
     </row>
     <row r="92" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D92" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E92" s="12">
+      <c r="D92" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" s="23">
         <v>21</v>
       </c>
-      <c r="F92" s="12">
-        <v>4</v>
-      </c>
-      <c r="G92" s="13">
+      <c r="F92" s="20">
+        <v>4</v>
+      </c>
+      <c r="G92" s="17">
         <f t="shared" si="2"/>
         <v>19.047619047619047</v>
       </c>
-      <c r="H92" s="12">
+      <c r="H92" s="15">
         <v>15</v>
       </c>
-      <c r="I92" s="13">
+      <c r="I92" s="7">
         <f t="shared" si="5"/>
         <v>23.809523809523807</v>
       </c>
-      <c r="J92" s="13">
+      <c r="J92" s="7">
         <f>I92/I93</f>
         <v>0.51813471502590669</v>
       </c>
     </row>
     <row r="93" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D93" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E93" s="7">
+      <c r="D93" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" s="24">
         <f>AVERAGE(E71:E92)</f>
         <v>21</v>
       </c>
-      <c r="F93" s="13">
+      <c r="F93" s="7">
         <f>AVERAGE(F71:F92)</f>
         <v>8</v>
       </c>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7">
+      <c r="G93" s="4"/>
+      <c r="H93" s="4">
         <f>AVERAGE(H71:H92)</f>
         <v>28.95</v>
       </c>
-      <c r="I93" s="13">
+      <c r="I93" s="7">
         <f>(H93/(E93*3))*100</f>
         <v>45.952380952380949</v>
       </c>
-      <c r="J93" s="7"/>
+      <c r="J93" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
